--- a/Códigos de procesamiento/accidentes.xlsx
+++ b/Códigos de procesamiento/accidentes.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,31 +472,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://ul.waze.com/ul?ll=21.17052583%2C-86.82590604&amp;navigate=yes&amp;zoom=17&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+          <t>https://ul.waze.com/ul?ll=21.16530326%2C-86.83907032&amp;navigate=yes&amp;zoom=16&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hace 32 min</t>
+          <t>hace 12 min</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.17052583</t>
+          <t>21.16530326</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-86.82590604</t>
+          <t>-86.83907032</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45783.71956082916</v>
+        <v>45783.74567401823</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://ul.waze.com/ul?ll=21.17094603%2C-86.82615280&amp;navigate=yes&amp;zoom=16&amp;utm_campaign=default&amp;utm_source=waze_website&amp;utm_medium=lm_share_location</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hace 40 min</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.17094603</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-86.82615280</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45783.72622957762</v>
       </c>
     </row>
   </sheetData>
